--- a/tablelist.xlsx
+++ b/tablelist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="74">
   <si>
     <t>user_id</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,9 +817,6 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
         <v>41</v>
       </c>
       <c r="K12" t="s">
